--- a/ADHTeam Charts.xlsx
+++ b/ADHTeam Charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
@@ -302,18 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,43 +327,302 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -505,64 +752,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -612,26 +802,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -647,62 +817,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:E7" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:E7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="B2:E7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Version" dataDxfId="22"/>
-    <tableColumn id="2" name="Date" dataDxfId="21"/>
-    <tableColumn id="3" name="Comments" dataDxfId="20"/>
-    <tableColumn id="4" name="Author" dataDxfId="19"/>
+    <tableColumn id="1" name="Version" dataDxfId="5"/>
+    <tableColumn id="2" name="Date" dataDxfId="4"/>
+    <tableColumn id="3" name="Comments" dataDxfId="3"/>
+    <tableColumn id="4" name="Author" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B2:G4" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B2:G4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B2:G4"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="No." dataDxfId="6"/>
-    <tableColumn id="2" name="Date" dataDxfId="5"/>
-    <tableColumn id="3" name="Duration" dataDxfId="4"/>
-    <tableColumn id="4" name="Location" dataDxfId="3"/>
-    <tableColumn id="5" name="Paticipants" dataDxfId="2"/>
-    <tableColumn id="6" name="Summary" dataDxfId="1"/>
+    <tableColumn id="1" name="No." dataDxfId="13"/>
+    <tableColumn id="2" name="Date" dataDxfId="12"/>
+    <tableColumn id="3" name="Duration" dataDxfId="11"/>
+    <tableColumn id="4" name="Location" dataDxfId="10"/>
+    <tableColumn id="5" name="Paticipants" dataDxfId="9"/>
+    <tableColumn id="6" name="Summary" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B2:D7" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B2:D7" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B2:D7"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Deliverable No." dataDxfId="17"/>
-    <tableColumn id="3" name="Date" dataDxfId="15"/>
-    <tableColumn id="2" name="Description" dataDxfId="16"/>
+    <tableColumn id="1" name="Deliverable No." dataDxfId="24"/>
+    <tableColumn id="3" name="Date" dataDxfId="23"/>
+    <tableColumn id="2" name="Description" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B2:C12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B2:C12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B2:C12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Tool" dataDxfId="14"/>
-    <tableColumn id="2" name="Purpose" dataDxfId="13"/>
+    <tableColumn id="1" name="Tool" dataDxfId="19"/>
+    <tableColumn id="2" name="Purpose" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B2:C8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B2:C8" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B2:C8"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Language/Framework" dataDxfId="10"/>
-    <tableColumn id="2" name="Purpose" dataDxfId="9"/>
+    <tableColumn id="1" name="Language/Framework" dataDxfId="15"/>
+    <tableColumn id="2" name="Purpose" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1007,85 +1177,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="13">
         <v>42973</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="13">
         <v>42975</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="13">
         <v>42976</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="13">
         <v>42977</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2"/>
@@ -1099,16 +1269,16 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="12">
         <v>1.4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="13">
         <v>42977</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="2"/>
@@ -1244,84 +1414,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="13">
         <v>42971</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="13">
         <v>42976</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1331,7 +1502,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,68 +1513,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>42978</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>43006</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>43018</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>43048</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>43067</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1421,7 +1592,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,90 +1602,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1531,7 +1702,7 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,59 +1711,59 @@
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:3" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:3" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:3" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
